--- a/05. Models/06.Benchmarking/ClsuteringOverview.xlsx
+++ b/05. Models/06.Benchmarking/ClsuteringOverview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ealvarezq\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ealvarezq\Documents\GitHub\Comillas\Models\JointResearch\05. Models\06.Benchmarking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D3FDA6-3B2A-43D8-A54E-E1BF62225ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729127D7-EB5D-44A9-94C7-33224FBF83F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{7BB2066D-5270-4E6D-ACF3-E76E4257FA3D}"/>
+    <workbookView xWindow="1830" yWindow="3330" windowWidth="21600" windowHeight="11385" xr2:uid="{7BB2066D-5270-4E6D-ACF3-E76E4257FA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
